--- a/Tahsilat Tahakkuk Harita Analizi/veriler/Tahsilat Tahakkuk Excel Dosyaları/Yıllar/İllere Göre Tahsilat Tahakkuk 2019/77_Uşak_2019.xlsx
+++ b/Tahsilat Tahakkuk Harita Analizi/veriler/Tahsilat Tahakkuk Excel Dosyaları/Yıllar/İllere Göre Tahsilat Tahakkuk 2019/77_Uşak_2019.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="BuÇalışmaKitabı" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HUSOCAN\Desktop\Yazılarım\İllere Göre Tahsilat Tahakkuk (Yıllara Göre)\İllere Göre Tahsilat Tahakkuk 2019\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HUSOCAN\Desktop\İllere Göre Tahsilat Tahakkuk 2019\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A29C4A0C-3D85-43DD-883A-25E42CFEE8D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{09684665-0361-40BD-A926-BE9F67C0B06B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="687" xr2:uid="{5FC9F7DD-FA7F-478B-B7B7-9A2976702AF6}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="687" xr2:uid="{043B2041-11E4-4744-99E6-0E32C8872BD1}"/>
   </bookViews>
   <sheets>
     <sheet name="ARALIK" sheetId="102" r:id="rId1"/>
@@ -978,15 +978,15 @@
   <cellStyles count="11">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="2" xr:uid="{1490D7FB-8A0D-456A-9064-5C5D362A8D25}"/>
-    <cellStyle name="Normal 2 2" xfId="3" xr:uid="{D1D68B3F-30C5-4B6D-8ACF-3C35552ED361}"/>
-    <cellStyle name="Normal 2 3" xfId="4" xr:uid="{0E8DD92B-639E-4FEF-8CA8-1BE76CD50073}"/>
-    <cellStyle name="Normal 3" xfId="5" xr:uid="{5E7B534F-4AFA-45D1-ABDB-4BA31FFF6682}"/>
-    <cellStyle name="Normal 3 2" xfId="6" xr:uid="{C42EFFD5-D6D2-479F-86B4-5D47F99F788A}"/>
-    <cellStyle name="Normal_genel_gelir_det3" xfId="7" xr:uid="{F7FB97BE-E7E5-46A6-AC90-F88DBB3015CB}"/>
-    <cellStyle name="Normal_genelgelirtahk_tahs" xfId="8" xr:uid="{02064355-08AD-4EE8-B43B-893D3018647C}"/>
-    <cellStyle name="Not 2" xfId="9" xr:uid="{D8B3526F-1830-43DB-850D-00640A7EF55D}"/>
-    <cellStyle name="Virgül [0]_29dan32ye" xfId="10" xr:uid="{38409CBC-7C3E-48E6-9DA1-48DC37976F37}"/>
+    <cellStyle name="Normal 2" xfId="2" xr:uid="{D01DD3A6-A643-4F21-AE51-7E1DB5DD2A88}"/>
+    <cellStyle name="Normal 2 2" xfId="3" xr:uid="{04C3AA88-960C-478B-95F9-F17D719A1A7A}"/>
+    <cellStyle name="Normal 2 3" xfId="4" xr:uid="{FD80DDEF-1C9D-4E27-9616-8D306DE799CB}"/>
+    <cellStyle name="Normal 3" xfId="5" xr:uid="{84DAC431-D994-4F55-83D4-5CD46716F0AB}"/>
+    <cellStyle name="Normal 3 2" xfId="6" xr:uid="{A40CC2C0-65F3-489A-AFB7-506CBF6F1182}"/>
+    <cellStyle name="Normal_genel_gelir_det3" xfId="7" xr:uid="{801B4BDA-00A3-444B-A42C-0DC4D90639AF}"/>
+    <cellStyle name="Normal_genelgelirtahk_tahs" xfId="8" xr:uid="{3C290660-73C0-499D-BE95-72EDA75B1CC4}"/>
+    <cellStyle name="Not 2" xfId="9" xr:uid="{1DE154CE-D7DF-4C18-AACB-3EFD3E486DB0}"/>
+    <cellStyle name="Virgül [0]_29dan32ye" xfId="10" xr:uid="{577308DF-F2CE-49E0-96AD-174640452043}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1356,7 +1356,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5F7EF480-C73F-45FB-9B8B-FC41D0DE6AB8}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{36CF998E-94A1-4BAF-BC6D-7E7EE620FF2F}">
   <dimension ref="B2:F101"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -2591,18 +2591,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{D11BF50B-5295-415A-AB8F-61C8F5BBEC7E}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{7A322360-1854-4DE4-9515-3E11FE48F670}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{B75AF8ED-D78D-4FA9-8466-B05D578241B8}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{D10010F5-2B6D-4444-BE22-6D979B32FEB8}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{1D75DADF-4E48-4099-A05B-7DD496C2D9A7}"/>
-    <hyperlink ref="E5" location="'HAZİRAN '!A1" display="HAZİRAN" xr:uid="{1967B412-EF7A-4196-80AB-8B3D06CBC758}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{3DA3DC66-90C2-4552-8224-1DBC71A075EC}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{154DA43A-E7C4-42E2-887C-BB8BBC05174C}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{9324A9E6-2F34-4461-928C-67786CD62210}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{6D4351EA-71D6-46B9-8EAA-58C0F0F5CB2A}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{A2BFE871-2CC7-4F3A-BD46-2140B09F4D86}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{E737C117-3E93-47DC-8870-22F86A04CC0E}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{6E993FE3-FB28-4EB9-AE52-9A10913E0449}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{6D31F813-378F-4D42-81C0-8A06D3532084}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{E5E5601F-FFE8-45A8-8CF0-D9D37563B539}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{64A917BF-9A46-4026-9336-671FF444AC0E}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{DC191E38-B940-4B53-8DD6-90E8FA551071}"/>
+    <hyperlink ref="E5" location="'HAZİRAN '!A1" display="HAZİRAN" xr:uid="{430C4FD1-ADA9-4A32-AE42-9676EBC85D25}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{6856398A-4C93-4237-BEBF-60C951F25E55}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{B82105EE-DEA1-40F3-99A5-8755CABA475A}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{85D3DF81-3393-43B4-861B-F1F93D12126F}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{7DF1360F-41B3-4258-A843-086FA775D88E}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{266581F3-402B-4A52-96F6-9B8E0E5526F5}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{3CABCE0B-E069-4E42-860F-B21D6FE94012}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -2615,7 +2615,7 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{377BF8B2-EA07-48E3-82E1-9B7660B7BA5E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AA7A5BD1-16EB-4A2A-AF4C-C902C4825AD9}">
   <dimension ref="B2:F101"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -3848,18 +3848,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{7E11A077-20C2-4E2E-B6BF-7B6E7DDA5B93}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{F6E483F9-F246-4B38-990E-D7EDEAA94938}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{0B6E82A6-542A-43DD-9D3C-27074CFC9C7E}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{B68CB3EB-5DAC-4DC2-A6FC-CCB33E314D42}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{66777C9F-7593-4095-8E1A-C123D04EC2EC}"/>
-    <hyperlink ref="E5" location="'HAZİRAN '!A1" display="HAZİRAN" xr:uid="{593911A5-DECF-433E-BDB3-C78045777F50}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{C1FFDC90-89A2-48B2-815F-C9B4621BB58C}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{435DC533-7DD5-4855-84C2-A1793EF76951}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{E3E2BFC3-3FE8-4F3A-A0B6-3598473CA223}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{7B7D0D2C-C4E1-4BA4-9B63-DC80C7D835A1}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{266B4F4F-7C02-4239-B6C7-A5C5D19EAC40}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{EEF0671F-203A-48C5-9C98-C940EFE40F82}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{D26F8EA9-F479-4410-9D81-2C9882D5DC4E}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{22196115-C928-4755-B0FF-688F28306994}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{5CB51FC8-5A8B-403F-9F77-00F710F86C55}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{DEF3892E-C743-43F6-9572-D88E601A796A}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{1A49412A-D291-4225-85C3-D8DF4A9B53DF}"/>
+    <hyperlink ref="E5" location="'HAZİRAN '!A1" display="HAZİRAN" xr:uid="{43B6AB5F-630E-4D62-8815-712EC408F758}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{5412CAD0-FB54-448F-BA7A-86AFDE06F55D}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{F11CFB6B-FCF5-40D7-B488-5B48AFB53EA4}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{26E0A895-8472-455E-94FE-F87DFD4C25A8}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{CEA449D5-18E6-42DD-898D-72795D0C415F}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{B228A7B0-6E84-46C3-938C-316EFEEF3C07}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{C8F7AC0C-0A07-4C64-9556-78E641D5DBE8}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -3872,7 +3872,7 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1D155353-46D3-41A0-A069-C7028E4D3056}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{813CA262-FE39-4903-892F-376E9147A1F7}">
   <dimension ref="B2:F101"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -5101,18 +5101,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{FA717AF7-27DC-4FD0-92D0-7B9D17F99CD3}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{05730E84-602A-406D-B50A-4C2FCDE23FE5}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{79B73E44-3A3C-4C8D-8D9C-3514DCCDFC0F}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{0D18EFA6-CD9E-438F-AA93-DFBD6BAD842A}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{F42B855F-271E-4203-BAB3-7006A11BFB09}"/>
-    <hyperlink ref="E5" location="'HAZİRAN '!A1" display="HAZİRAN" xr:uid="{941E8B57-1A04-4CB7-B733-9C227EF4E429}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{EF4B9B49-1840-40C9-8679-B6EADF1B5433}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{719993CD-3B74-4169-AE0D-D8AD9E8B461E}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{116ABD1B-E89B-406E-A984-0A76E01C07ED}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{908D1FAB-B2AC-4025-A31B-179F7A9ADA27}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{E65DEDC7-25B7-4C7B-8F88-7A4B4E84856A}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{709A2962-435A-443F-9638-DB60A1F36146}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{59807876-14F1-4BDF-8D20-AF23959EF1AA}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{E1C18C01-B003-4D38-AA3D-24135A0984ED}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{50DF18EE-F4A2-4966-9B9C-F31DB812570B}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{9C969334-8680-407E-8D3E-8AB9B3D96639}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{6F83E742-722D-4762-AD1D-FB07D95B9243}"/>
+    <hyperlink ref="E5" location="'HAZİRAN '!A1" display="HAZİRAN" xr:uid="{2FE6BF43-47D5-4431-A8DE-FC567114CD0D}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{F5E73296-0373-47D2-86F7-20AF230F95A6}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{4015ADA6-ACF7-4E2C-8A6A-480CCC25EDA9}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{BB7AF206-D127-4CAD-87BF-053F602F1E4B}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{F30C146A-A7B3-4399-AC41-2EB49EB3382E}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{9889F219-5A1E-478A-BE91-ED7776A37747}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{41AF7E16-62F1-4650-B969-87DEB6B97FE6}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -5125,7 +5125,7 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{09BA2918-212C-4B6E-B186-3E66851D0363}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A8896BE4-0A08-4066-9309-0FFBE321D0F9}">
   <dimension ref="B2:F101"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -6348,18 +6348,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{6EFD9D9D-AC07-47D9-BE67-9FD1C01449ED}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{92E023A2-549C-4236-80B7-34CE02898F06}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{5475ADB2-9193-4DCB-88B6-B4288D3DAB14}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{789FCAA3-3083-47C6-AE5B-CA801BD22A7C}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{5D7C28EB-64C5-4597-8A4C-1FA17D87A5C2}"/>
-    <hyperlink ref="E5" location="'HAZİRAN '!A1" display="HAZİRAN" xr:uid="{BA7E0665-0720-43FB-A20D-B399CA185FAE}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{3E0E0CAB-AE45-4BA5-8AB4-1C12DCBCDA73}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{84FE444F-843F-470F-8E9A-AB65BB278076}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{E5B3086B-B125-4FE6-A0CD-B7AFEBBE5EFA}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{234E2B4B-1DE4-4E7F-A72A-DDFA4F074488}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{6ACDDE39-C98B-4547-8586-3616EAE02C78}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{5A3ABBD7-F832-4FBD-8D73-2FA42B934AA2}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{93DDF0D4-F57E-4592-8BFE-BF0E8A340EA6}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{62854342-3522-45D5-BDED-22F9A07AC646}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{F3BF5C6E-B277-4D94-B62F-14A15BC9BE2D}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{8034AA9F-6F01-44C3-A865-81815704ABB6}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{E99E73FD-FA64-4829-9CA5-6ADC9D022AF0}"/>
+    <hyperlink ref="E5" location="'HAZİRAN '!A1" display="HAZİRAN" xr:uid="{E22918A9-7B68-4AC7-A47E-848EAE4D1B4A}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{6B70AFA4-CB38-4A3B-A480-56679213BA4D}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{3B719FF1-F4D0-4463-B7C3-4F08CB098BE0}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{AD8E971C-F7CB-44D4-9C62-F62667C92920}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{5423046D-7483-4344-9B4C-028AC1279D5A}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{33467965-06FA-4F17-B236-A13164698B0E}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{B1E45ABE-CAB7-4296-BCA4-A432D2702A7F}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -6372,7 +6372,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{93565CB2-6DB1-49AE-915C-361CC4AA480F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9E7BC47D-193F-49E0-8588-A4DF7A494EF9}">
   <dimension ref="B2:F101"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -7605,18 +7605,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{9CB0425B-A1C4-4A36-BB09-7FD2A1728807}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{77545C9A-AA69-452D-9F5A-B5F0A249B276}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{48F8F55D-D9A6-45A6-908B-F9EBD7DE486F}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{BF3950A1-F530-4D21-93DC-F84F70C80975}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{BDCC0418-2488-419E-AFE8-A52D4FE6B50A}"/>
-    <hyperlink ref="E5" location="'HAZİRAN '!A1" display="HAZİRAN" xr:uid="{E6FE2CF9-9418-495F-9AE2-FBA1D43D9A7A}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{C67B3DA5-44D3-457A-86BC-81D779CDB9E9}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{E301B8DB-0C82-416E-B58B-2499BC25AF28}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{F753AF09-C745-453F-BF55-6E333F8A91AD}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{31511E26-8C70-418A-954D-725B8883131F}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{59EFCC7D-4314-4258-B10B-363F237618D5}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{98855C2F-FD62-472D-B8D0-46ED5E0B6863}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{64A00ECC-D4DE-4A9E-A4AD-652FE2933242}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{7970A5C1-C7EB-48C9-875F-B35D41793CA0}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{3208EBE5-759B-43C2-B623-681DFEC355C9}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{316D8D09-5859-4888-A488-7D2A02CE1756}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{C4B25300-D12B-4C73-8DA0-A55ABDB279B0}"/>
+    <hyperlink ref="E5" location="'HAZİRAN '!A1" display="HAZİRAN" xr:uid="{2B7C83CE-C9E4-4C3E-A803-772B4D940801}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{46A9EA81-B943-46C5-AF3D-6F470293F8F5}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{122E67A6-29BA-405F-BB0D-DA80401EDAB6}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{35C2169A-E517-4601-A44C-E36894F46FE5}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{C866C1FC-9EE8-43DB-A145-0C6A616725D6}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{409E7856-FB04-4F20-9E73-AFA4140013B5}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{A1786699-E0A4-4CE9-AC06-6BE0CE93D702}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -7629,7 +7629,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A603938D-E5EF-4F22-848F-2A84D0DEED71}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{27857EA7-439F-4DDE-BBF4-ADC1B491032C}">
   <dimension ref="B2:F101"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -8862,18 +8862,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{B82EE273-A834-429A-BD23-8D413107D8C1}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{A68C24C5-0A13-4D01-9B9F-842FA4024692}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{CB1E8F48-BA3B-40B9-8B21-29B00FD0BDF2}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{2D8EAC2D-64AE-4ED3-8BCF-DF39A190D8DB}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{87DBD7DE-806C-4975-8D74-25A873571F6C}"/>
-    <hyperlink ref="E5" location="'HAZİRAN '!A1" display="HAZİRAN" xr:uid="{8187457D-B82A-46D2-9139-8F8B3B12A7C7}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{7E96F03E-691B-450E-AA47-FF8437B723E1}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{13659973-A1F4-40B9-A105-FE9D58762EAC}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{AC873406-DA16-49EF-8553-AD6D8DE09478}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{941C2CFB-F433-4666-90A4-B49C96AA16F3}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{27D35F3F-071E-40A9-8387-5BBCBB78CD80}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{D242DAD4-9E45-4F12-9D6C-DC96131C8E67}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{F06302A2-DB61-4B4E-84D7-DB358F12AE8B}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{B25BDF2E-C012-4624-8342-712DC9C28AA5}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{B4CD0578-9359-4ED0-9386-5E8B59C0810C}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{6713EA50-44B0-40B3-874B-EBE7CF8E01FE}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{ABB722C2-A2E0-4A45-94C5-F1624DC0D413}"/>
+    <hyperlink ref="E5" location="'HAZİRAN '!A1" display="HAZİRAN" xr:uid="{85E7DFC0-67C1-46B1-81DE-46F96A85106E}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{09EE749B-7D54-4A0C-811A-22D6F1B809D4}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{FCC029CC-225E-47D6-B0D8-B748A61E973E}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{1DFB965E-0CF3-4328-8A78-597B906DBD26}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{6BD51B23-CD68-4BD4-BEC7-1DF83CDDCF59}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{7A11882B-7871-4239-AFE1-1857517BA707}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{B30E89D0-230F-4EB6-9B23-E4D98830D568}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -8886,7 +8886,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EB14095E-112C-4557-85D7-8253BE1A70A6}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{54297C40-6509-4251-BA8D-477F4EA7FFCB}">
   <dimension ref="B2:F101"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -10119,18 +10119,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{5945AF6E-EAA6-4D12-B738-25C16D31DA02}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{42976B16-3CBD-4052-8FD5-46EEBB0FD85D}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{06DD79B1-F76C-4D0F-A6E2-EE6B117888F4}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{0E459E99-4B8B-4682-9802-BABCEC572F31}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{EB421CF5-C3F4-4D7A-B28C-5CBCAF87D191}"/>
-    <hyperlink ref="E5" location="'HAZİRAN '!A1" display="HAZİRAN" xr:uid="{D715525C-E462-4B99-9E0E-67CB34527C1B}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{28719FA8-30D0-4330-AE3F-215B4DE1325C}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{DD037987-4F07-449A-BF50-62E39C54FE2F}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{78DFAF74-0149-4826-AA73-A188002F0FEE}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{7DB6EDD7-C683-40D9-A851-70CEC2ABA326}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{66A3081D-73F0-490C-9CD8-5F38E33BFD01}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{088985A7-8350-4438-9FFD-ABF8E461C04D}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{0AC81EB3-C370-4ACE-96C6-B105EFCF5AE6}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{6DCC314A-A7E6-4E3F-935C-994552A6140A}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{6B1032A1-2C53-483D-8CBC-E2BD774DEE83}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{71869BEF-2118-45D9-AB1F-B748B16113CA}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{590187E6-2005-4868-9E0D-A3BE86EB198C}"/>
+    <hyperlink ref="E5" location="'HAZİRAN '!A1" display="HAZİRAN" xr:uid="{602DD2F2-4538-4BBB-8E18-19776A6F96B1}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{F6A61F4A-15F8-4125-AF36-C27370586C32}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{33263605-E57F-4898-AD62-F0861909FE04}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{44F53B30-F964-4C03-9731-788762F0EE41}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{E1B34137-2B51-4115-9910-6C6CE2306897}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{756BA7C0-AE83-4448-9C72-EF64AEBC77EA}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{3E76989B-FB94-439A-B55F-F664CDADA5CB}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -10143,7 +10143,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{861DD918-ACC7-4F14-AB00-0C200DABE861}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6046B809-59A0-45D0-8D2D-6F647669E2C5}">
   <dimension ref="B2:F101"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -11376,18 +11376,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{52EE0A39-1898-48D3-A864-90B12D4AE028}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{3B57F94D-16CA-4495-BF73-50ADE6E3DE95}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{96462742-C927-4B87-9153-917F26E1A70A}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{10320EBC-FEA4-4CCE-863C-F562D5546838}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{7ABA9FB5-4831-46E7-9E48-0C28078462A7}"/>
-    <hyperlink ref="E5" location="'HAZİRAN '!A1" display="HAZİRAN" xr:uid="{6FD7683A-D57B-4787-9FB9-8EBE56C4D396}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{9C1A00DA-0947-4426-920E-7675B38B79D4}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{1081D83D-380A-4A84-9FE5-A205CE169887}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{D7DC9ABD-9F56-4B0F-AD31-7F2400B340E9}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{9B587D0B-425E-4604-A972-FA56B1E01AF9}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{A3F466F9-C36E-4BA4-AC2E-1A17DE11C276}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{269DBD84-9D47-42A8-BCE5-74E2CF0B4B0E}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{07BDDDC1-3FA0-4BF2-BD78-B14DD2FA496A}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{C4C4CD4B-8890-4336-8A6F-B184E44264C9}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{DE9CDEFE-63B7-4564-98ED-901693693732}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{C3C2C6CA-EF04-4ACC-882C-24D30AC61915}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{2B85F925-FDA6-4BB2-8CD5-B9741B8D9CE9}"/>
+    <hyperlink ref="E5" location="'HAZİRAN '!A1" display="HAZİRAN" xr:uid="{3331A2AB-FC58-48FA-940F-D203460673FB}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{AAF11FD5-B57F-4A8A-847D-970C6E5AE26F}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{106A91F7-035A-49D5-8036-495D0EAC1505}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{65AE0D46-2000-4DE4-B8A7-C2C2A13C3A9E}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{BCB654EF-8EA2-4146-B808-9F7503DE453B}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{904BB467-0BF5-4354-980F-8358358DB551}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{59810036-8144-448B-A5B6-DB3F01FF1014}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -11400,7 +11400,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7318D3A9-FEBF-4806-AAB0-B3CD056B37BE}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EDD13EF8-B90A-40FC-A31E-D77C01CF6A67}">
   <dimension ref="B2:F101"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -12633,18 +12633,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{DDD32504-1AD3-477D-9186-5195CD7EBD10}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{0DC66716-8592-40C6-9305-EB1DF9CC9A9C}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{F8D1DC5A-C096-4697-B158-1816AE971C9F}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{F4B7DCD4-E3CF-4120-B999-965DBF734DCE}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{FD60F18E-9954-48B9-A431-55A7E8363F3A}"/>
-    <hyperlink ref="E5" location="'HAZİRAN '!A1" display="HAZİRAN" xr:uid="{50387C44-9105-4B63-B140-9BBEBE1A7CCD}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{0867B101-6A76-43E9-AA8D-9E53340F23EE}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{C24090CE-76BA-461C-8573-A905F24DBA4F}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{777D0E92-4899-4770-9ADE-2A5F27B35D5C}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{2E918733-D7E0-4135-BFB3-59BF4BB16A63}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{3D820313-FF1A-4938-A9DF-4C277ECC6748}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{13002B4E-58D3-4A1E-B982-60FE905D7000}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{5E0CB88F-E92E-4008-8A9D-4CD2CD0AAA0E}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{99CD3830-3DEC-4443-9942-EFE0CD97C259}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{EB2EF528-AC8A-4F95-B03A-02434685B0FB}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{A9B9A29C-2CDA-446C-816C-49A8B578E45F}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{2BA8D807-811C-44CA-8B6E-BF010FF2547C}"/>
+    <hyperlink ref="E5" location="'HAZİRAN '!A1" display="HAZİRAN" xr:uid="{B563E4FB-F45D-419F-8FFE-25421AA8295D}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{245C76F7-84AC-4C73-8CCB-8EB7067840A7}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{8BD58E88-6EA0-4F02-9EA7-A6037AE4D258}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{6F6CABBB-5D64-4820-B252-3B8610C326A5}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{7A697FE1-01D7-4E8A-8433-127E29FE3005}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{50AC7820-0DEB-4B5D-AA0B-F05F8A90042A}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{22868D41-4845-4602-8DAC-66AF2A444032}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -12657,7 +12657,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AA527FC4-8563-41E4-9D94-564E6E0717EC}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7C44D980-2B35-424F-8535-A66F554338DB}">
   <dimension ref="B2:F101"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -13890,18 +13890,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{1029390C-A1D3-403A-B0B4-27409C67DA66}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{917B60E3-485A-4C63-A783-A4DEDAFFCE51}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{DE56BC30-9A47-4515-996F-1B42C9B43F44}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{C190C52E-8501-401E-A34B-B650A2CF4D77}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{35E65DA4-E284-4171-83C7-C046232D4FCF}"/>
-    <hyperlink ref="E5" location="'HAZİRAN '!A1" display="HAZİRAN" xr:uid="{341905CB-7AA1-4ABE-9DA7-A1C77F71B057}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{229CE6BD-498E-4737-9BF5-DCE42893070C}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{9911831E-533D-4E04-AE26-77D8E5F9175C}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{9BB1BBCB-C20A-4023-9A27-861B5EB95DB5}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{4CA5433C-7ABB-408A-B33A-FCAD842FF33B}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{6AE0B428-AA3D-4BBA-911C-0C844114C5AB}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{B5121887-7DBA-4FEE-9125-1F592504E362}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{95DEDFA6-5FA8-4D5D-BD22-A7C7070C6407}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{E5349DB1-50C9-48B4-B1CB-36147BE22CF1}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{839F39A7-240E-4F1A-9038-69FDA082E47B}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{666351E2-99DC-41C3-95F6-B0CE34DC39F7}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{172C803A-0A09-4C38-B50D-B65359CEB508}"/>
+    <hyperlink ref="E5" location="'HAZİRAN '!A1" display="HAZİRAN" xr:uid="{AC17A0ED-52F0-4976-ADDA-6C8A2C8CAE73}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{DCF9B575-5149-4805-9201-C471CA45060B}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{E88D73F9-1C0C-4D39-94F3-444385DDD4A1}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{674B2768-020B-406E-9E64-654DADA843C6}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{D1CF76C7-4AE2-45FA-BD55-56CC5DA52C4F}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{F0B91862-A5F2-4D53-81E9-E8872E0598DC}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{0D2E81B8-119D-4EE4-8EC7-4E29D9940357}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -13914,7 +13914,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{67925B6A-C55F-43B9-9E33-5EBCB76FC795}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E318F3EF-5B38-4208-B5FA-BC20D101CA3C}">
   <dimension ref="B2:F101"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -15147,18 +15147,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{7046D54D-1583-4A29-8AEC-E40117B1FBE6}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{7F3B7D55-0781-49A2-B7D8-2754F7926EDE}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{C22B33C7-23D8-40AC-A77F-053BE8F84F62}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{53B1B102-81E4-4B8D-ABE9-5E4F4B35DECB}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{B780B98D-83C9-41D5-ADD9-95199B6FC4C5}"/>
-    <hyperlink ref="E5" location="'HAZİRAN '!A1" display="HAZİRAN" xr:uid="{613F6080-2A5C-4691-A741-ADEDC58F970C}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{17422567-043B-4C12-ABB2-A5BC3009A7FD}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{FDED88EE-A42D-476C-9200-D8D0213DC809}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{1214DA95-869B-4975-B5B2-3C7C4168BCAB}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{9C4F626E-072C-41D0-BD8D-4C29802FB74E}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{00D0A468-4DC3-42AC-93A2-9C5B67F3DE90}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{C1A50981-56F7-4297-8E9D-1CFF5DBFDDD2}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{1F60A093-7D6C-482E-8E75-B08D1E5DD6AE}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{5D5483D4-E8C2-499A-995F-AFD756124C98}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{F67DC574-B928-4D23-AB16-1A215C397AD9}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{A0D38DA3-CB5A-44F5-8BBE-32BC8944C865}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{56AFFBBB-54F9-4749-BCFE-648F3B155FDA}"/>
+    <hyperlink ref="E5" location="'HAZİRAN '!A1" display="HAZİRAN" xr:uid="{14657AF9-1B7F-4ECC-BB8E-8F18F0966EA2}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{4B9F6922-02BC-471A-A6D6-ED9B7E524D9D}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{1E46C840-6CEA-4161-A838-2881E4FE4219}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{D41857D4-D0BE-4C6B-A0BD-010569A0E680}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{AD58CEA1-1146-4D72-9E60-AE95AA2921C4}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{C5692495-4BA2-4511-994A-A59C5C0160C8}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{95FB37AC-A0AE-4C90-8463-EF78C15BD120}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -15171,7 +15171,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AD8DE3AC-C8AF-41EA-9917-B4CC6CBC084E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{30FEF1DF-9666-470A-A821-BB347F832597}">
   <dimension ref="B2:F101"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -16404,18 +16404,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{4D849095-11D4-4A2F-A2E8-076E71F80459}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{BCFA11FC-B2CB-42E6-B5C0-D1FE34177CC6}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{4850E078-8D1C-4456-8752-A723E3885531}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{F7073F00-468E-4A1A-B120-CEF446EE9C6C}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{91987D1E-FBE8-42FE-8065-457D999F556A}"/>
-    <hyperlink ref="E5" location="'HAZİRAN '!A1" display="HAZİRAN" xr:uid="{E9F07E8C-1C73-4858-AF3B-68BD9DBEDAFB}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{AFD9B107-085D-4D74-873C-38C584850B0A}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{48845B35-1500-4AF1-A181-B6BCA2BFC73F}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{621D834E-C8BE-495B-99A2-45C0F67514A6}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{920EB3B5-F0D0-4BF0-82A4-46C8DEE7D3C8}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{698EA0DA-27CF-4418-80AC-AB7092FD9096}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{C44E3C74-D989-492D-AF8D-67DBB9A61ED2}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{4138A8EC-C733-4C31-8DC9-F918AA41A94A}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{F8FB916F-1DC9-49D8-8723-E04258B1E838}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{25683FC3-4A5B-4884-8C91-97BDBE099750}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{03256895-BC98-4FA4-890F-D50E121D1895}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{0DD9AC38-E3FF-428B-B9B5-516C5096538C}"/>
+    <hyperlink ref="E5" location="'HAZİRAN '!A1" display="HAZİRAN" xr:uid="{6652B677-6437-4624-A70C-72EB6EA9EFFC}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{3F0589E0-2E54-45A3-BD9B-9BCD6C4D891C}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{5558C595-51E2-4C09-AEC7-924E14C36606}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{43BA8B74-99D8-4A13-95E2-A9F38880BB58}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{18EEE8AF-8524-4853-AC70-9A5E496806F0}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{CA3305C3-88D2-4F1A-9D05-9704CA658C26}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{74E8CEA1-1C70-421E-8AE4-770C4E89EF8F}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
